--- a/example_output/csv_data/VMTP_total.xlsx
+++ b/example_output/csv_data/VMTP_total.xlsx
@@ -445,8 +445,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3.140308244428151</v>
+      </c>
+      <c r="C6">
+        <v>5.0407607243513</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -454,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4319116378339543</v>
+        <v>6.526323324015235</v>
       </c>
       <c r="C7">
-        <v>4.955600338305557</v>
+        <v>5.339864148305497</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -468,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.798921170217866</v>
+        <v>8.44134638177059</v>
       </c>
       <c r="C8">
-        <v>5.204648807540059</v>
+        <v>5.633138085695838</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -482,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.250462973134237</v>
+        <v>9.900498837455036</v>
       </c>
       <c r="C9">
-        <v>5.449807177096393</v>
+        <v>5.920582536522322</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -496,10 +502,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.934819094203473</v>
+        <v>11.10474124656947</v>
       </c>
       <c r="C10">
-        <v>5.691075446974556</v>
+        <v>6.20219750078495</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -510,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.913950231403678</v>
+        <v>12.15216447534955</v>
       </c>
       <c r="C11">
-        <v>5.928453617174551</v>
+        <v>6.477982978483722</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -524,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.81905679146109</v>
+        <v>13.09761284710085</v>
       </c>
       <c r="C12">
-        <v>6.161941687696376</v>
+        <v>6.747938969618636</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -538,10 +544,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.75396023165799</v>
+        <v>13.9778531055035</v>
       </c>
       <c r="C13">
-        <v>6.391539658540032</v>
+        <v>7.012065474189695</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -552,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.58477302324527</v>
+        <v>14.80908912255238</v>
       </c>
       <c r="C14">
-        <v>6.61724752970552</v>
+        <v>7.270362492196897</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -566,10 +572,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.37840348928208</v>
+        <v>15.60305092771778</v>
       </c>
       <c r="C15">
-        <v>6.839065301192838</v>
+        <v>7.522830023640244</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -580,10 +586,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.12945966636895</v>
+        <v>16.36559461206483</v>
       </c>
       <c r="C16">
-        <v>7.056992973001988</v>
+        <v>7.769468068519735</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -594,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.84018681551408</v>
+        <v>17.1001828696397</v>
       </c>
       <c r="C17">
-        <v>7.271030545132967</v>
+        <v>8.010276626835369</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -608,10 +614,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.52134111510995</v>
+        <v>17.81169382084912</v>
       </c>
       <c r="C18">
-        <v>7.481178017585779</v>
+        <v>8.245255698587146</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -622,10 +628,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.1762943394698</v>
+        <v>18.50445703906322</v>
       </c>
       <c r="C19">
-        <v>7.687435390360419</v>
+        <v>8.474405283775067</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -636,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.80608791134522</v>
+        <v>19.18100014711681</v>
       </c>
       <c r="C20">
-        <v>7.889802663456893</v>
+        <v>8.697725382399131</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -650,10 +656,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.41477803161609</v>
+        <v>19.84348374155966</v>
       </c>
       <c r="C21">
-        <v>8.088279836875195</v>
+        <v>8.91521599445934</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -664,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.00540252793739</v>
+        <v>20.49377157701778</v>
       </c>
       <c r="C22">
-        <v>8.282866910615329</v>
+        <v>9.12687711995569</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -678,10 +684,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.57967738656051</v>
+        <v>21.13348598216922</v>
       </c>
       <c r="C23">
-        <v>8.473563884677295</v>
+        <v>9.332708758888186</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -692,10 +698,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.13910413559854</v>
+        <v>21.76405211290898</v>
       </c>
       <c r="C24">
-        <v>8.660370759061092</v>
+        <v>9.532710911256824</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -706,10 +712,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.68500219467764</v>
+        <v>22.38673369364235</v>
       </c>
       <c r="C25">
-        <v>8.843287533766718</v>
+        <v>9.726883577061608</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -720,10 +726,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.21853553441322</v>
+        <v>23.00266222158203</v>
       </c>
       <c r="C26">
-        <v>9.022314208794175</v>
+        <v>9.915226756302536</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -734,10 +740,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20.74073477984054</v>
+        <v>23.61286112468462</v>
       </c>
       <c r="C27">
-        <v>9.197450784143465</v>
+        <v>10.09774044897961</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -748,10 +754,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.25251564072385</v>
+        <v>24.21826601369427</v>
       </c>
       <c r="C28">
-        <v>9.368697259814585</v>
+        <v>10.27442465509282</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -762,10 +768,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.7546943613708</v>
+        <v>24.8197419137045</v>
       </c>
       <c r="C29">
-        <v>9.536053635807535</v>
+        <v>10.44527937464218</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -776,10 +782,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22.24800073721161</v>
+        <v>25.41808910350684</v>
       </c>
       <c r="C30">
-        <v>9.699519912122314</v>
+        <v>10.61030460762768</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -790,10 +796,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22.7330891334799</v>
+        <v>26.01396713149813</v>
       </c>
       <c r="C31">
-        <v>9.859096088758928</v>
+        <v>10.76950035404932</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -804,10 +810,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.21054785451696</v>
+        <v>26.60836344001856</v>
       </c>
       <c r="C32">
-        <v>10.01478216571737</v>
+        <v>10.92286661390711</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -818,10 +824,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.68090714440824</v>
+        <v>27.20200024234449</v>
       </c>
       <c r="C33">
-        <v>10.16657814299765</v>
+        <v>11.07040338720104</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -832,10 +838,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>24.14399670925414</v>
+        <v>27.79558751161417</v>
       </c>
       <c r="C34">
-        <v>10.31448402059975</v>
+        <v>11.21211067393112</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -846,10 +852,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>24.60043763916156</v>
+        <v>28.38983324081591</v>
       </c>
       <c r="C35">
-        <v>10.45849979852369</v>
+        <v>11.34798847409734</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -860,10 +866,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>25.05108998179824</v>
+        <v>28.98545362626022</v>
       </c>
       <c r="C36">
-        <v>10.59862547676945</v>
+        <v>11.4780367876997</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -874,10 +880,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>25.49632166807649</v>
+        <v>29.58318348347884</v>
       </c>
       <c r="C37">
-        <v>10.73486105533705</v>
+        <v>11.60225561473821</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -888,10 +894,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>25.93646716763429</v>
+        <v>30.18378721617626</v>
       </c>
       <c r="C38">
-        <v>10.86720653422648</v>
+        <v>11.72064495521286</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -902,10 +908,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>26.37183108175783</v>
+        <v>30.78807068762026</v>
       </c>
       <c r="C39">
-        <v>10.99566191343774</v>
+        <v>11.83320480912365</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -916,10 +922,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>26.80216652362094</v>
+        <v>31.39689439201761</v>
       </c>
       <c r="C40">
-        <v>11.12022719297083</v>
+        <v>11.93993517647059</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -930,10 +936,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>27.22748483537959</v>
+        <v>32.01118839497578</v>
       </c>
       <c r="C41">
-        <v>11.24090237282575</v>
+        <v>12.04083605725367</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -944,10 +950,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>27.6488441238977</v>
+        <v>32.6319696132478</v>
       </c>
       <c r="C42">
-        <v>11.3576874530025</v>
+        <v>12.1359074514729</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -958,10 +964,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>28.06646045222108</v>
+        <v>33.26036214366437</v>
       </c>
       <c r="C43">
-        <v>11.47058243350108</v>
+        <v>12.22514935912827</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -972,10 +978,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>28.48053175626925</v>
+        <v>33.89762154263853</v>
       </c>
       <c r="C44">
-        <v>11.57958731432149</v>
+        <v>12.30856178021978</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -986,10 +992,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28.89038106391407</v>
+        <v>34.54516421997375</v>
       </c>
       <c r="C45">
-        <v>11.68470209546374</v>
+        <v>12.38614471474744</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1000,10 +1006,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>29.29661822988259</v>
+        <v>35.20460347170618</v>
       </c>
       <c r="C46">
-        <v>11.78592677692781</v>
+        <v>12.45789816271124</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1014,10 +1020,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29.69989212101676</v>
+        <v>35.87779417722264</v>
       </c>
       <c r="C47">
-        <v>11.88326135871372</v>
+        <v>12.52382212411118</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1028,10 +1034,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>30.10034437069896</v>
+        <v>36.56688888665456</v>
       </c>
       <c r="C48">
-        <v>11.97670584082146</v>
+        <v>12.58391659894727</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1042,10 +1048,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.49747072022335</v>
+        <v>37.27440901712938</v>
       </c>
       <c r="C49">
-        <v>12.06626022325102</v>
+        <v>12.6381815872195</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1056,10 +1062,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.89142774687068</v>
+        <v>38.00333630105227</v>
       </c>
       <c r="C50">
-        <v>12.15192450600242</v>
+        <v>12.68661708892787</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1069,14 +1075,8 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>31.28301476580215</v>
-      </c>
-      <c r="C51">
-        <v>12.23369868907565</v>
-      </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1139,16 +1139,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>2.940490003903821</v>
+      </c>
+      <c r="C6">
+        <v>5.110809637476645</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6.183486191117302</v>
+      </c>
+      <c r="C7">
+        <v>5.382331958032064</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1156,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.627825023653816</v>
+        <v>8.25680515198184</v>
       </c>
       <c r="C8">
-        <v>5.489360239903217</v>
+        <v>5.648361421633416</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1170,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.029127406763345</v>
+        <v>9.707839872148723</v>
       </c>
       <c r="C9">
-        <v>5.69654868492159</v>
+        <v>5.908898028280699</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1184,10 +1196,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.260897522850366</v>
+        <v>10.98014177427446</v>
       </c>
       <c r="C10">
-        <v>5.900037415468551</v>
+        <v>6.163941777973917</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1198,10 +1210,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.216856692656878</v>
+        <v>12.06611516562485</v>
       </c>
       <c r="C11">
-        <v>6.099826431544106</v>
+        <v>6.413492670713066</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1212,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.56186114954418</v>
+        <v>12.9785552516601</v>
       </c>
       <c r="C12">
-        <v>6.295915733148248</v>
+        <v>6.657550706498149</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1226,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.73256721127888</v>
+        <v>13.92320359735923</v>
       </c>
       <c r="C13">
-        <v>6.48830532028098</v>
+        <v>6.896115885329164</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1240,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.35728248384423</v>
+        <v>14.79868205098887</v>
       </c>
       <c r="C14">
-        <v>6.676995192942304</v>
+        <v>7.129188207206109</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1254,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.3974778679204</v>
+        <v>15.63489611564644</v>
       </c>
       <c r="C15">
-        <v>6.861985351132217</v>
+        <v>7.356767672128989</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1268,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.17901580518238</v>
+        <v>16.43686552745358</v>
       </c>
       <c r="C16">
-        <v>7.043275794850719</v>
+        <v>7.578854280097802</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1282,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.95100221045131</v>
+        <v>17.20746954221143</v>
       </c>
       <c r="C17">
-        <v>7.220866524097812</v>
+        <v>7.795448031112547</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1296,10 +1308,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.68720924591464</v>
+        <v>17.95455057040097</v>
       </c>
       <c r="C18">
-        <v>7.394757538873496</v>
+        <v>8.006548925173224</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1310,10 +1322,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38593960029173</v>
+        <v>18.68116046719082</v>
       </c>
       <c r="C19">
-        <v>7.56494883917777</v>
+        <v>8.212156962279833</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1324,10 +1336,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.05699523827349</v>
+        <v>19.38989952452529</v>
       </c>
       <c r="C20">
-        <v>7.731440425010633</v>
+        <v>8.412272142432375</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1338,10 +1350,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.70288059416517</v>
+        <v>20.08300119113334</v>
       </c>
       <c r="C21">
-        <v>7.894232296372086</v>
+        <v>8.60689446563085</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1352,10 +1364,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.32580929723458</v>
+        <v>20.76239884775083</v>
       </c>
       <c r="C22">
-        <v>8.053324453262126</v>
+        <v>8.796023931875258</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1366,10 +1378,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.92608568192436</v>
+        <v>21.4297789730798</v>
       </c>
       <c r="C23">
-        <v>8.208716895680761</v>
+        <v>8.979660541165599</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1380,10 +1392,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.50739284754063</v>
+        <v>22.08662388627556</v>
       </c>
       <c r="C24">
-        <v>8.360409623627984</v>
+        <v>9.15780429350187</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1394,10 +1406,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.07156677113066</v>
+        <v>22.7342464352268</v>
       </c>
       <c r="C25">
-        <v>8.508402637103798</v>
+        <v>9.330455188884075</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1408,10 +1420,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.61992912680041</v>
+        <v>23.37381841284632</v>
       </c>
       <c r="C26">
-        <v>8.652695936108199</v>
+        <v>9.497613227312213</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1422,10 +1434,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.15367083717506</v>
+        <v>24.00639405678839</v>
       </c>
       <c r="C27">
-        <v>8.793289520641192</v>
+        <v>9.659278408786284</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1436,10 +1448,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.67386784175879</v>
+        <v>24.63292967457473</v>
       </c>
       <c r="C28">
-        <v>8.930183390702776</v>
+        <v>9.815450733306285</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1450,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22.18149463715168</v>
+        <v>25.25430020388827</v>
       </c>
       <c r="C29">
-        <v>9.063377546292948</v>
+        <v>9.96613020087222</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1464,10 +1476,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22.67743594799294</v>
+        <v>25.87131334445752</v>
       </c>
       <c r="C30">
-        <v>9.19287198741171</v>
+        <v>10.11131681148409</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1478,10 +1490,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>23.16249682292822</v>
+        <v>26.48472176783845</v>
       </c>
       <c r="C31">
-        <v>9.318666714059065</v>
+        <v>10.25101056514189</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1492,10 +1504,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.63702573214788</v>
+        <v>27.09523381341481</v>
       </c>
       <c r="C32">
-        <v>9.440761726235005</v>
+        <v>10.38521146184562</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1506,10 +1518,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>24.10093651911572</v>
+        <v>27.7035230051709</v>
       </c>
       <c r="C33">
-        <v>9.559157023939541</v>
+        <v>10.51391950159529</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1520,10 +1532,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>24.55584688303966</v>
+        <v>28.31023666858161</v>
       </c>
       <c r="C34">
-        <v>9.673852607172662</v>
+        <v>10.63713468439088</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -1534,10 +1546,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25.00234103515977</v>
+        <v>28.91600388626161</v>
       </c>
       <c r="C35">
-        <v>9.784848475934377</v>
+        <v>10.75485701023242</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1548,10 +1560,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>25.44095489327128</v>
+        <v>29.52144300195031</v>
       </c>
       <c r="C36">
-        <v>9.892144630224681</v>
+        <v>10.86708647911988</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1562,10 +1574,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>25.87218096407851</v>
+        <v>30.12716886299794</v>
       </c>
       <c r="C37">
-        <v>9.995741070043573</v>
+        <v>10.97382309105327</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1576,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>26.29615298312212</v>
+        <v>30.7337999804723</v>
       </c>
       <c r="C38">
-        <v>10.09563779539106</v>
+        <v>11.0750668460326</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1590,10 +1602,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>26.71153924158005</v>
+        <v>31.34196578260445</v>
       </c>
       <c r="C39">
-        <v>10.19183480626713</v>
+        <v>11.17081774405786</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1604,10 +1616,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>27.1207564939657</v>
+        <v>31.9523141413184</v>
       </c>
       <c r="C40">
-        <v>10.28433210267179</v>
+        <v>11.26107578512906</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1618,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>27.52417102109182</v>
+        <v>32.56551936330845</v>
       </c>
       <c r="C41">
-        <v>10.37312968460504</v>
+        <v>11.34584096924618</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1632,10 +1644,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>27.92212163456704</v>
+        <v>33.18229085731115</v>
       </c>
       <c r="C42">
-        <v>10.45822755206689</v>
+        <v>11.42511329640924</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1646,10 +1658,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>28.31247776501096</v>
+        <v>33.80338271921976</v>
       </c>
       <c r="C43">
-        <v>10.53962570505732</v>
+        <v>11.49889276661823</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1660,10 +1672,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>28.69764871150057</v>
+        <v>34.42960833737256</v>
       </c>
       <c r="C44">
-        <v>10.61732414357634</v>
+        <v>11.56717937987316</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -1674,10 +1686,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>29.07823700103624</v>
+        <v>35.06196255857623</v>
       </c>
       <c r="C45">
-        <v>10.69132286762396</v>
+        <v>11.62997313617401</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1688,10 +1700,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>29.45361012034355</v>
+        <v>35.70122802965365</v>
       </c>
       <c r="C46">
-        <v>10.76162187720016</v>
+        <v>11.6872740355208</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1702,10 +1714,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29.8227797032894</v>
+        <v>36.34842095551456</v>
       </c>
       <c r="C47">
-        <v>10.82822117230495</v>
+        <v>11.73908207791352</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1716,10 +1728,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>30.18810824858391</v>
+        <v>37.00467351577848</v>
       </c>
       <c r="C48">
-        <v>10.89112075293833</v>
+        <v>11.78539726335218</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1730,10 +1742,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.5495455555331</v>
+        <v>37.67161830527508</v>
       </c>
       <c r="C49">
-        <v>10.95032061910031</v>
+        <v>11.82621959183676</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1743,25 +1755,16 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>30.90463313494129</v>
-      </c>
-      <c r="C50">
-        <v>11.00582077079087</v>
-      </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>31.25650661108142</v>
-      </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1824,16 +1827,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>2.069361488871363</v>
+      </c>
+      <c r="C6">
+        <v>5.457851838352095</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>5.079382401873857</v>
+      </c>
+      <c r="C7">
+        <v>5.713919635805016</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1841,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.223485361185396</v>
+        <v>7.372552124767916</v>
       </c>
       <c r="C8">
-        <v>5.634336407764479</v>
+        <v>5.965526979084173</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1855,10 +1870,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.671630972224645</v>
+        <v>8.904598000997344</v>
       </c>
       <c r="C9">
-        <v>5.8478001245632</v>
+        <v>6.212673868189566</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1869,10 +1884,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.104932082158781</v>
+        <v>10.14859957360172</v>
       </c>
       <c r="C10">
-        <v>6.057701688261788</v>
+        <v>6.455360303121195</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1883,10 +1898,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.8010832094274</v>
+        <v>11.3249898293503</v>
       </c>
       <c r="C11">
-        <v>6.264041098860246</v>
+        <v>6.693586283879061</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1897,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.09093768129095</v>
+        <v>12.25348052150805</v>
       </c>
       <c r="C12">
-        <v>6.466818356358574</v>
+        <v>6.927351810463161</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1911,10 +1926,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.54602789971513</v>
+        <v>13.10990014565814</v>
       </c>
       <c r="C13">
-        <v>6.666033460756768</v>
+        <v>7.1566568828735</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1925,10 +1940,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.76682204701359</v>
+        <v>13.97445518117823</v>
       </c>
       <c r="C14">
-        <v>6.861686412054834</v>
+        <v>7.381501501110071</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1939,10 +1954,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.47133095894021</v>
+        <v>14.80534280424167</v>
       </c>
       <c r="C15">
-        <v>7.053777210252768</v>
+        <v>7.601885665172881</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1953,10 +1968,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.25420327873681</v>
+        <v>15.6022744904705</v>
       </c>
       <c r="C16">
-        <v>7.242305855350571</v>
+        <v>7.817809375061925</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1967,10 +1982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.00942292828081</v>
+        <v>16.36992712978038</v>
       </c>
       <c r="C17">
-        <v>7.427272347348243</v>
+        <v>8.029272630777205</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1981,10 +1996,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.72667035743211</v>
+        <v>17.11066467300645</v>
       </c>
       <c r="C18">
-        <v>7.608676686245785</v>
+        <v>8.236275432318722</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1995,10 +2010,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.41198282175862</v>
+        <v>17.82903755905814</v>
       </c>
       <c r="C19">
-        <v>7.786518872043196</v>
+        <v>8.438817779686474</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2009,10 +2024,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.07081046030705</v>
+        <v>18.52873946873983</v>
       </c>
       <c r="C20">
-        <v>7.960798904740473</v>
+        <v>8.636899672880462</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2023,10 +2038,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70559319040457</v>
+        <v>19.21195493164949</v>
       </c>
       <c r="C21">
-        <v>8.131516784337622</v>
+        <v>8.830521111900687</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2037,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.31723162829642</v>
+        <v>19.88057086035495</v>
       </c>
       <c r="C22">
-        <v>8.298672510834638</v>
+        <v>9.019682096747147</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2051,10 +2066,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.9084404993704</v>
+        <v>20.53622775002803</v>
       </c>
       <c r="C23">
-        <v>8.462266084231524</v>
+        <v>9.204382627419843</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2065,10 +2080,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48193020004309</v>
+        <v>21.18036087141585</v>
       </c>
       <c r="C24">
-        <v>8.62229750452828</v>
+        <v>9.384622703918774</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2079,10 +2094,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.03911488251242</v>
+        <v>21.81423369016117</v>
       </c>
       <c r="C25">
-        <v>8.778766771724904</v>
+        <v>9.560402326243942</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2093,10 +2108,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.58126188653197</v>
+        <v>22.43896519664125</v>
       </c>
       <c r="C26">
-        <v>8.931673885821395</v>
+        <v>9.731721494395345</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2107,10 +2122,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20.10951030922314</v>
+        <v>23.05555242934268</v>
       </c>
       <c r="C27">
-        <v>9.081018846817758</v>
+        <v>9.898580208372985</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2121,10 +2136,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20.62488682583121</v>
+        <v>23.66488917852807</v>
       </c>
       <c r="C28">
-        <v>9.22680165471399</v>
+        <v>10.06097846817686</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2135,10 +2150,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.12831922478811</v>
+        <v>24.2677816360544</v>
       </c>
       <c r="C29">
-        <v>9.369022309510088</v>
+        <v>10.21891627380697</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2149,10 +2164,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.6206480332846</v>
+        <v>24.86496159105381</v>
       </c>
       <c r="C30">
-        <v>9.507680811206058</v>
+        <v>10.37239362526332</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2163,10 +2178,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22.10263654041545</v>
+        <v>25.45709764522947</v>
       </c>
       <c r="C31">
-        <v>9.642777159801895</v>
+        <v>10.5214105225459</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2177,10 +2192,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22.57462387044461</v>
+        <v>26.04466763677626</v>
       </c>
       <c r="C32">
-        <v>9.774311355297602</v>
+        <v>10.66596696565472</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2191,10 +2206,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.03644247018099</v>
+        <v>26.62816835085195</v>
       </c>
       <c r="C33">
-        <v>9.902283397693179</v>
+        <v>10.80606295458978</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2205,10 +2220,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>23.48971150833347</v>
+        <v>27.20844801050893</v>
       </c>
       <c r="C34">
-        <v>10.02669328698862</v>
+        <v>10.94169848935107</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2219,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23.93498038730177</v>
+        <v>27.78601609864909</v>
       </c>
       <c r="C35">
-        <v>10.14754102318394</v>
+        <v>11.07287356993859</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2233,10 +2248,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>24.37275227192686</v>
+        <v>28.3613546606219</v>
       </c>
       <c r="C36">
-        <v>10.26482660627912</v>
+        <v>11.19958819635236</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2247,10 +2262,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24.80348885331527</v>
+        <v>28.93492375153924</v>
       </c>
       <c r="C37">
-        <v>10.37855003627417</v>
+        <v>11.32184236859236</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2261,10 +2276,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>25.22719201802074</v>
+        <v>29.50716641016115</v>
       </c>
       <c r="C38">
-        <v>10.48871131316909</v>
+        <v>11.43963608665859</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2275,10 +2290,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>25.64283075252055</v>
+        <v>30.07851327547192</v>
       </c>
       <c r="C39">
-        <v>10.59531043696388</v>
+        <v>11.55296935055106</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2289,10 +2304,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>26.05258533424345</v>
+        <v>30.64938694892183</v>
       </c>
       <c r="C40">
-        <v>10.69834740765854</v>
+        <v>11.66184216026977</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2303,10 +2318,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>26.45679667455255</v>
+        <v>31.22020619617473</v>
       </c>
       <c r="C41">
-        <v>10.79782222525307</v>
+        <v>11.76625451581471</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2317,10 +2332,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>26.85577972432141</v>
+        <v>31.79150872872962</v>
       </c>
       <c r="C42">
-        <v>10.89373488974747</v>
+        <v>11.86620641718589</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -2331,10 +2346,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>27.24747399327251</v>
+        <v>32.36374708894609</v>
       </c>
       <c r="C43">
-        <v>10.98608540114173</v>
+        <v>11.9616978643833</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2345,10 +2360,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27.63426544885682</v>
+        <v>32.93734420025325</v>
       </c>
       <c r="C44">
-        <v>11.07487375943587</v>
+        <v>12.05272885740695</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2359,10 +2374,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28.01665616922145</v>
+        <v>33.51274195417295</v>
       </c>
       <c r="C45">
-        <v>11.16009996462987</v>
+        <v>12.13929939625683</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2373,10 +2388,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>28.39410710281188</v>
+        <v>34.09039895659071</v>
       </c>
       <c r="C46">
-        <v>11.24176401672374</v>
+        <v>12.22140948093296</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2387,10 +2402,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>28.76559640651398</v>
+        <v>34.67079545130177</v>
       </c>
       <c r="C47">
-        <v>11.31986591571748</v>
+        <v>12.29905911143532</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2401,10 +2416,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>29.13337904498844</v>
+        <v>35.25443870174079</v>
       </c>
       <c r="C48">
-        <v>11.3944056616111</v>
+        <v>12.37224828776391</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2415,10 +2430,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>29.49759456544751</v>
+        <v>35.84186896183907</v>
       </c>
       <c r="C49">
-        <v>11.46538325440457</v>
+        <v>12.44097700991874</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -2500,8 +2515,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.306639648156103</v>
+      </c>
+      <c r="C6">
+        <v>5.659802313270644</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2509,10 +2530,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.312975354584393</v>
+        <v>4.854675126105805</v>
       </c>
       <c r="C7">
-        <v>5.788279758430764</v>
+        <v>5.938205973555423</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -2523,10 +2544,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.585715942809934</v>
+        <v>6.848273023656682</v>
       </c>
       <c r="C8">
-        <v>6.02585850815044</v>
+        <v>6.211469996421671</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2537,10 +2558,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.228528736936881</v>
+        <v>8.344352162835618</v>
       </c>
       <c r="C9">
-        <v>6.259554855037441</v>
+        <v>6.479594381869387</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2551,10 +2572,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.503286486557582</v>
+        <v>9.768803346476924</v>
       </c>
       <c r="C10">
-        <v>6.489368799091768</v>
+        <v>6.742579129898575</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2565,10 +2586,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.151901286547199</v>
+        <v>10.762356044409</v>
       </c>
       <c r="C11">
-        <v>6.715300340313419</v>
+        <v>7.000424240509232</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -2579,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.746557744585409</v>
+        <v>11.78798930080944</v>
       </c>
       <c r="C12">
-        <v>6.937349478702398</v>
+        <v>7.253129713701359</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -2593,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.837672583127326</v>
+        <v>12.74127705589392</v>
       </c>
       <c r="C13">
-        <v>7.1555162142587</v>
+        <v>7.500695549474956</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2607,10 +2628,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.96618461111703</v>
+        <v>13.54088359849647</v>
       </c>
       <c r="C14">
-        <v>7.369800546982329</v>
+        <v>7.74312174783002</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -2621,10 +2642,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.01407056240886</v>
+        <v>14.30157622678022</v>
       </c>
       <c r="C15">
-        <v>7.580202476873282</v>
+        <v>7.980408308766558</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -2635,10 +2656,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.50227121808867</v>
+        <v>15.03020248704793</v>
       </c>
       <c r="C16">
-        <v>7.786722003931561</v>
+        <v>8.212555232284561</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2649,10 +2670,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.24351203050323</v>
+        <v>15.73218272912254</v>
       </c>
       <c r="C17">
-        <v>7.989359128157166</v>
+        <v>8.439562518384038</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2663,10 +2684,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.94915437127599</v>
+        <v>16.41183807248913</v>
       </c>
       <c r="C18">
-        <v>8.188113849550097</v>
+        <v>8.661430167064983</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2677,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62240579306162</v>
+        <v>17.07238366198892</v>
       </c>
       <c r="C19">
-        <v>8.382986168110353</v>
+        <v>8.878158178327396</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2691,10 +2712,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.26269036145543</v>
+        <v>17.71753463071339</v>
       </c>
       <c r="C20">
-        <v>8.573976083837932</v>
+        <v>9.089746552171283</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2705,10 +2726,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87751939349474</v>
+        <v>18.34957248387586</v>
       </c>
       <c r="C21">
-        <v>8.76108359673284</v>
+        <v>9.296195288596635</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2719,10 +2740,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.46911042519655</v>
+        <v>18.97021301540905</v>
       </c>
       <c r="C22">
-        <v>8.944308706795072</v>
+        <v>9.497504387603461</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2733,10 +2754,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.03944896549438</v>
+        <v>19.58118877119225</v>
       </c>
       <c r="C23">
-        <v>9.12365141402463</v>
+        <v>9.693673849191754</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2747,10 +2768,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.59031747954657</v>
+        <v>20.18420046917389</v>
       </c>
       <c r="C24">
-        <v>9.299111718421511</v>
+        <v>9.884703673361518</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2761,10 +2782,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.12332015799623</v>
+        <v>20.78060841742717</v>
       </c>
       <c r="C25">
-        <v>9.47068961998572</v>
+        <v>10.07059386011275</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2775,10 +2796,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.63990416888421</v>
+        <v>21.37162726729237</v>
       </c>
       <c r="C26">
-        <v>9.638385118717254</v>
+        <v>10.25134440944545</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2789,10 +2810,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19.14137796038276</v>
+        <v>21.95835801040502</v>
       </c>
       <c r="C27">
-        <v>9.802198214616114</v>
+        <v>10.42695532135963</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2803,10 +2824,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19.6289270800547</v>
+        <v>22.54181467987625</v>
       </c>
       <c r="C28">
-        <v>9.962128907682297</v>
+        <v>10.59742659585527</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2817,10 +2838,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20.10362789420645</v>
+        <v>23.12294718660886</v>
       </c>
       <c r="C29">
-        <v>10.11817719791581</v>
+        <v>10.76275823293238</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2831,10 +2852,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20.5664595247088</v>
+        <v>23.70266141701605</v>
       </c>
       <c r="C30">
-        <v>10.27034308531664</v>
+        <v>10.92295023259096</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2845,10 +2866,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21.0183142670418</v>
+        <v>24.28183751231353</v>
       </c>
       <c r="C31">
-        <v>10.41862656988481</v>
+        <v>11.07800259483101</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2859,10 +2880,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.45808817715918</v>
+        <v>24.86134711776505</v>
       </c>
       <c r="C32">
-        <v>10.56302765162029</v>
+        <v>11.22791531965254</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2873,10 +2894,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>21.88762284806684</v>
+        <v>25.44207031787762</v>
       </c>
       <c r="C33">
-        <v>10.7035463305231</v>
+        <v>11.37268840705553</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2887,10 +2908,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.30827506885419</v>
+        <v>26.02515290916151</v>
       </c>
       <c r="C34">
-        <v>10.84018260659324</v>
+        <v>11.51232185703999</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2901,10 +2922,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22.72069433371441</v>
+        <v>26.6116130003087</v>
       </c>
       <c r="C35">
-        <v>10.9729364798307</v>
+        <v>11.64681566960592</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2915,10 +2936,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23.12547627183493</v>
+        <v>27.2023523054352</v>
       </c>
       <c r="C36">
-        <v>11.10180795023549</v>
+        <v>11.77616984475332</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2929,10 +2950,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>23.51970049903063</v>
+        <v>27.79844437763347</v>
       </c>
       <c r="C37">
-        <v>11.2267970178076</v>
+        <v>11.90038438248219</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2943,10 +2964,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>23.9071878341392</v>
+        <v>28.40106804851002</v>
       </c>
       <c r="C38">
-        <v>11.34790368254705</v>
+        <v>12.01945928279253</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2957,10 +2978,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.28850642331781</v>
+        <v>29.01153713715439</v>
       </c>
       <c r="C39">
-        <v>11.46512794445381</v>
+        <v>12.13339454568434</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2971,10 +2992,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.66274055675694</v>
+        <v>29.63133648023092</v>
       </c>
       <c r="C40">
-        <v>11.5784698035279</v>
+        <v>12.24219017115762</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2985,10 +3006,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>25.02893871957574</v>
+        <v>30.26216646902252</v>
       </c>
       <c r="C41">
-        <v>11.68792925976931</v>
+        <v>12.34584615921236</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2999,10 +3020,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>25.39018523470222</v>
+        <v>30.90599904915264</v>
       </c>
       <c r="C42">
-        <v>11.79350631317805</v>
+        <v>12.44436250984858</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3013,10 +3034,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>25.74600973118527</v>
+        <v>31.56514925569381</v>
       </c>
       <c r="C43">
-        <v>11.89520096375412</v>
+        <v>12.53773922306627</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -3027,10 +3048,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>26.09399151049007</v>
+        <v>32.24236799615837</v>
       </c>
       <c r="C44">
-        <v>11.99301321149751</v>
+        <v>12.62597629886543</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -3041,10 +3062,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>26.43803434891131</v>
+        <v>32.94096423715268</v>
       </c>
       <c r="C45">
-        <v>12.08694305640823</v>
+        <v>12.70907373724606</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -3055,10 +3076,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>26.77685909784723</v>
+        <v>33.6649684547091</v>
       </c>
       <c r="C46">
-        <v>12.17699049848627</v>
+        <v>12.78703153820815</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -3068,64 +3089,40 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>27.10922898935655</v>
-      </c>
-      <c r="C47">
-        <v>12.26315553773164</v>
-      </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>27.43850550447984</v>
-      </c>
-      <c r="C48">
-        <v>12.34543817414434</v>
-      </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>27.76159307998831</v>
-      </c>
-      <c r="C49">
-        <v>12.42383840772435</v>
-      </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>28.0805683832837</v>
-      </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>28.39622020726098</v>
-      </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3188,16 +3185,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.121683310975382</v>
+      </c>
+      <c r="C6">
+        <v>5.73731223941791</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>4.403089565699721</v>
+      </c>
+      <c r="C7">
+        <v>6.041918515337778</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3205,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.039701441073245</v>
+        <v>6.943400169230024</v>
       </c>
       <c r="C8">
-        <v>5.910252080224028</v>
+        <v>6.341238897397956</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -3219,10 +3228,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.8057328303722</v>
+        <v>8.536873013110123</v>
       </c>
       <c r="C9">
-        <v>6.197550554952125</v>
+        <v>6.635273385598443</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3233,10 +3242,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.937683115512707</v>
+        <v>9.924584901562456</v>
       </c>
       <c r="C10">
-        <v>6.478364359632681</v>
+        <v>6.924021979939239</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3247,10 +3256,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.619413443823321</v>
+        <v>10.90458042641648</v>
       </c>
       <c r="C11">
-        <v>6.752693494265699</v>
+        <v>7.207484680420344</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3261,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.908299718570682</v>
+        <v>11.93680798549279</v>
       </c>
       <c r="C12">
-        <v>7.020537958851178</v>
+        <v>7.48566148704176</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3275,10 +3284,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.63803987143984</v>
+        <v>12.61657580627283</v>
       </c>
       <c r="C13">
-        <v>7.281897753389119</v>
+        <v>7.758552399803485</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3289,10 +3298,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.46412031190009</v>
+        <v>13.35405110722264</v>
       </c>
       <c r="C14">
-        <v>7.536772877879519</v>
+        <v>8.026157418705518</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3303,10 +3312,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.07476601768676</v>
+        <v>14.0566132859442</v>
       </c>
       <c r="C15">
-        <v>7.785163332322381</v>
+        <v>8.28847654374786</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3317,10 +3326,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.47877951645528</v>
+        <v>14.7308296659376</v>
       </c>
       <c r="C16">
-        <v>8.027069116717703</v>
+        <v>8.545509774930514</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3331,10 +3340,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.08441703055065</v>
+        <v>15.38181884710217</v>
       </c>
       <c r="C17">
-        <v>8.262490231065488</v>
+        <v>8.797257112253474</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -3345,10 +3354,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.69260219907813</v>
+        <v>16.01364120503589</v>
       </c>
       <c r="C18">
-        <v>8.49142667536573</v>
+        <v>9.043718555716746</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -3359,10 +3368,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.27944252506496</v>
+        <v>16.62957139416706</v>
       </c>
       <c r="C19">
-        <v>8.713878449618438</v>
+        <v>9.284894105320324</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -3373,10 +3382,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84814594114</v>
+        <v>17.23229279511058</v>
       </c>
       <c r="C20">
-        <v>8.929845553823602</v>
+        <v>9.520783761064214</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3387,10 +3396,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.40136389519303</v>
+        <v>17.8240391825233</v>
       </c>
       <c r="C21">
-        <v>9.139327987981229</v>
+        <v>9.751387522948415</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -3401,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.94131217078021</v>
+        <v>18.40670003545529</v>
       </c>
       <c r="C22">
-        <v>9.342325752091318</v>
+        <v>9.976705390972921</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -3415,10 +3424,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4698621869895</v>
+        <v>18.98186667351142</v>
       </c>
       <c r="C23">
-        <v>9.538838846153865</v>
+        <v>10.19673736513774</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -3429,10 +3438,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98861095663003</v>
+        <v>19.55037042232951</v>
       </c>
       <c r="C24">
-        <v>9.728867270168877</v>
+        <v>10.41148344544287</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -3443,10 +3452,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.49893540651912</v>
+        <v>20.11448245874103</v>
       </c>
       <c r="C25">
-        <v>9.912411024136347</v>
+        <v>10.6209436318883</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -3457,10 +3466,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.00203510362995</v>
+        <v>20.67538842827943</v>
       </c>
       <c r="C26">
-        <v>10.08947010805628</v>
+        <v>10.82511792447405</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -3471,10 +3480,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.49896629893343</v>
+        <v>21.2341879052948</v>
       </c>
       <c r="C27">
-        <v>10.26004452192867</v>
+        <v>11.0240063232001</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -3485,10 +3494,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18.99066941747806</v>
+        <v>21.79192593152833</v>
       </c>
       <c r="C28">
-        <v>10.42413426575353</v>
+        <v>11.21760882806647</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -3499,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.47799157425278</v>
+        <v>22.34962148283926</v>
       </c>
       <c r="C29">
-        <v>10.58173933953084</v>
+        <v>11.40592543907314</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3513,10 +3522,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>19.96170530653416</v>
+        <v>22.90829452061132</v>
       </c>
       <c r="C30">
-        <v>10.73285974326061</v>
+        <v>11.58895615622012</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3527,10 +3536,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20.44241644374118</v>
+        <v>23.46913787582552</v>
       </c>
       <c r="C31">
-        <v>10.87749547694285</v>
+        <v>11.76670097950741</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3541,10 +3550,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20.92087413325263</v>
+        <v>24.03379845678914</v>
       </c>
       <c r="C32">
-        <v>11.01564654057755</v>
+        <v>11.93915990893501</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3555,10 +3564,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>21.39791495141976</v>
+        <v>24.6031749782508</v>
       </c>
       <c r="C33">
-        <v>11.1473129341647</v>
+        <v>12.10633294450293</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3569,10 +3578,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>21.87415928470549</v>
+        <v>25.17855415994904</v>
       </c>
       <c r="C34">
-        <v>11.27249465770432</v>
+        <v>12.26822008621114</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3583,10 +3592,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22.35021364587369</v>
+        <v>25.76138139187113</v>
       </c>
       <c r="C35">
-        <v>11.3911917111964</v>
+        <v>12.42482133405967</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -3597,10 +3606,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22.82668079904323</v>
+        <v>26.35331183894942</v>
       </c>
       <c r="C36">
-        <v>11.50340409464094</v>
+        <v>12.57613668804851</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3611,10 +3620,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>23.30416974468674</v>
+        <v>26.95627515157025</v>
       </c>
       <c r="C37">
-        <v>11.60913180803794</v>
+        <v>12.72216614817766</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3625,10 +3634,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>23.78330591366066</v>
+        <v>27.57255938277882</v>
       </c>
       <c r="C38">
-        <v>11.70837485138741</v>
+        <v>12.86290971444712</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3639,10 +3648,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.26474193166472</v>
+        <v>28.20492218492852</v>
       </c>
       <c r="C39">
-        <v>11.80113322468933</v>
+        <v>12.99836738685688</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3653,10 +3662,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.74916935002935</v>
+        <v>28.85674120778483</v>
       </c>
       <c r="C40">
-        <v>11.88740692794371</v>
+        <v>13.12853916540696</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -3667,10 +3676,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>25.23744354228786</v>
+        <v>29.53222173250801</v>
       </c>
       <c r="C41">
-        <v>11.96719596115056</v>
+        <v>13.25342505009734</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -3681,10 +3690,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>25.73063828362842</v>
+        <v>30.23668951393373</v>
       </c>
       <c r="C42">
-        <v>12.04050032430986</v>
+        <v>13.37302504092804</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3695,10 +3704,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>26.22934540389287</v>
+        <v>30.97701340994457</v>
       </c>
       <c r="C43">
-        <v>12.10732001742163</v>
+        <v>13.48733913789904</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -3709,7 +3718,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>26.73452801052967</v>
+        <v>31.76223100943888</v>
+      </c>
+      <c r="C44">
+        <v>13.59636734101035</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -3719,16 +3731,28 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>32.61200060118791</v>
+      </c>
+      <c r="C45">
+        <v>13.70010965026198</v>
+      </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>33.55149389872918</v>
+      </c>
+      <c r="C46">
+        <v>13.7985660656539</v>
+      </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3831,8 +3855,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>2.341180590444308</v>
+      </c>
+      <c r="C6">
+        <v>5.715863145293674</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3840,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.456213996825067</v>
+        <v>5.61624668624084</v>
       </c>
       <c r="C7">
-        <v>6.259326871247954</v>
+        <v>6.030551941708398</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -3854,10 +3884,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.734680223014873</v>
+        <v>7.601186679263771</v>
       </c>
       <c r="C8">
-        <v>6.543692294116147</v>
+        <v>6.339833699162446</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -3868,10 +3898,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.774525321674735</v>
+        <v>8.825519123416418</v>
       </c>
       <c r="C9">
-        <v>6.822488494890441</v>
+        <v>6.643708417655818</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3882,10 +3912,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.873714825772831</v>
+        <v>9.942150210084122</v>
       </c>
       <c r="C10">
-        <v>7.095715473570841</v>
+        <v>6.942176097188512</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3896,10 +3926,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.203427478085409</v>
+        <v>10.86772738738159</v>
       </c>
       <c r="C11">
-        <v>7.363373230157341</v>
+        <v>7.23523673776053</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3910,10 +3940,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.742933809836337</v>
+        <v>11.80176016591192</v>
       </c>
       <c r="C12">
-        <v>7.625461764649946</v>
+        <v>7.522890339371871</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3924,10 +3954,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.722414739480977</v>
+        <v>12.67125988959358</v>
       </c>
       <c r="C13">
-        <v>7.881981077048651</v>
+        <v>7.805136902022538</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3938,10 +3968,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.80578713501766</v>
+        <v>13.49088626344787</v>
       </c>
       <c r="C14">
-        <v>8.13293116735346</v>
+        <v>8.081976425712524</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3952,10 +3982,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.53613774015023</v>
+        <v>14.2727331291426</v>
       </c>
       <c r="C15">
-        <v>8.378312035564374</v>
+        <v>8.353408910441836</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3966,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.21724735964176</v>
+        <v>15.02254410730232</v>
       </c>
       <c r="C16">
-        <v>8.618123681681386</v>
+        <v>8.619434356210471</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3980,10 +4010,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.86000416117103</v>
+        <v>15.7449874775046</v>
       </c>
       <c r="C17">
-        <v>8.852366105704505</v>
+        <v>8.880052763018426</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -3994,10 +4024,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.46940904580726</v>
+        <v>16.44300102434506</v>
       </c>
       <c r="C18">
-        <v>9.081039307633725</v>
+        <v>9.135264130865711</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -4008,10 +4038,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.04963400385117</v>
+        <v>17.12076386987705</v>
       </c>
       <c r="C19">
-        <v>9.304143287469048</v>
+        <v>9.385068459752313</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4022,10 +4052,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.60418700207757</v>
+        <v>17.78138203522721</v>
       </c>
       <c r="C20">
-        <v>9.521678045210471</v>
+        <v>9.629465749678241</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -4036,10 +4066,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.13603901775029</v>
+        <v>18.42695179068783</v>
       </c>
       <c r="C21">
-        <v>9.733643580858001</v>
+        <v>9.868456000643492</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -4050,10 +4080,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.64772298410436</v>
+        <v>19.05927044751372</v>
       </c>
       <c r="C22">
-        <v>9.94003989441163</v>
+        <v>10.10203921264807</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -4064,10 +4094,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14141163554126</v>
+        <v>19.67989019012107</v>
       </c>
       <c r="C23">
-        <v>10.14086698587136</v>
+        <v>10.33021538569196</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -4078,10 +4108,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.61897932197476</v>
+        <v>20.29016093754037</v>
       </c>
       <c r="C24">
-        <v>10.3361248552372</v>
+        <v>10.55298451977519</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -4092,10 +4122,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.08205151600579</v>
+        <v>20.89090726071443</v>
       </c>
       <c r="C25">
-        <v>10.52581350250914</v>
+        <v>10.77034661489773</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -4106,10 +4136,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>17.53204477984609</v>
+        <v>21.4832488238588</v>
       </c>
       <c r="C26">
-        <v>10.70993292768718</v>
+        <v>10.9823016710596</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -4120,10 +4150,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.97019927010301</v>
+        <v>22.06844822155202</v>
       </c>
       <c r="C27">
-        <v>10.88848313077133</v>
+        <v>11.18884968826079</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -4134,10 +4164,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18.39760535681738</v>
+        <v>22.64736345674132</v>
       </c>
       <c r="C28">
-        <v>11.06146411176157</v>
+        <v>11.3899906665013</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -4148,10 +4178,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>18.81351864496177</v>
+        <v>23.22076435271261</v>
       </c>
       <c r="C29">
-        <v>11.22887587065792</v>
+        <v>11.58572460578114</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -4162,10 +4192,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>19.2185185136073</v>
+        <v>23.78934697426892</v>
       </c>
       <c r="C30">
-        <v>11.39071840746038</v>
+        <v>11.7760515061003</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -4176,10 +4206,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.61530466371463</v>
+        <v>24.35374577983022</v>
       </c>
       <c r="C31">
-        <v>11.54699172216893</v>
+        <v>11.96097136745879</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -4190,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20.00457576773633</v>
+        <v>24.91454397105869</v>
       </c>
       <c r="C32">
-        <v>11.69769581478359</v>
+        <v>12.14048418985659</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -4204,10 +4234,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20.38472619355363</v>
+        <v>25.47228241106915</v>
       </c>
       <c r="C33">
-        <v>11.84283068530435</v>
+        <v>12.31458997329372</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -4218,10 +4248,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20.75647040725285</v>
+        <v>26.02731620000064</v>
       </c>
       <c r="C34">
-        <v>11.98239633373121</v>
+        <v>12.48328871777018</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -4232,10 +4262,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>21.12243940613791</v>
+        <v>26.58020273548272</v>
       </c>
       <c r="C35">
-        <v>12.11639276006418</v>
+        <v>12.64658042328596</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -4246,10 +4276,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>21.48187803994133</v>
+        <v>27.13168364023466</v>
       </c>
       <c r="C36">
-        <v>12.24481996430325</v>
+        <v>12.80446508984106</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -4260,10 +4290,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>21.83296897607172</v>
+        <v>27.68220445826199</v>
       </c>
       <c r="C37">
-        <v>12.36767794644842</v>
+        <v>12.95694271743548</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -4273,181 +4303,112 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>22.17963217592228</v>
-      </c>
-      <c r="C38">
-        <v>12.48496670649969</v>
-      </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>22.52042635292951</v>
-      </c>
-      <c r="C39">
-        <v>12.59668624445707</v>
-      </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>22.85435792405845</v>
-      </c>
-      <c r="C40">
-        <v>12.70283656032055</v>
-      </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>23.18491522689681</v>
-      </c>
-      <c r="C41">
-        <v>12.80341765409013</v>
-      </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>23.50883788103949</v>
-      </c>
-      <c r="C42">
-        <v>12.89842952576582</v>
-      </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>23.8284212296132</v>
-      </c>
-      <c r="C43">
-        <v>12.9878721753476</v>
-      </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>24.14449590185761</v>
-      </c>
-      <c r="C44">
-        <v>13.0717456028355</v>
-      </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>24.45404370538683</v>
-      </c>
-      <c r="C45">
-        <v>13.15004980822949</v>
-      </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>24.76156224835442</v>
-      </c>
-      <c r="C46">
-        <v>13.22278479152958</v>
-      </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>25.06298627999202</v>
-      </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>25.36177210807269</v>
-      </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>25.65634816159618</v>
-      </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>25.94711592184651</v>
-      </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>26.23513521734375</v>
-      </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4510,8 +4471,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3.156963001993552</v>
+      </c>
+      <c r="C6">
+        <v>5.387371058120139</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4519,10 +4486,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.999564228681284</v>
+        <v>5.957661308634774</v>
       </c>
       <c r="C7">
-        <v>5.52024257640765</v>
+        <v>5.759328936318136</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -4533,10 +4500,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.762741930796397</v>
+        <v>8.364715800429751</v>
       </c>
       <c r="C8">
-        <v>5.978381670462773</v>
+        <v>6.11377148498332</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -4547,10 +4514,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.590856916291288</v>
+        <v>9.464968270411767</v>
       </c>
       <c r="C9">
-        <v>6.405832026590392</v>
+        <v>6.450698704115688</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4561,10 +4528,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.386711300852796</v>
+        <v>10.77646356999881</v>
       </c>
       <c r="C10">
-        <v>6.802593644790508</v>
+        <v>6.770110593715244</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -4575,10 +4542,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.38681585324451</v>
+        <v>11.96277799117182</v>
       </c>
       <c r="C11">
-        <v>7.16866652506312</v>
+        <v>7.072007153781985</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4589,10 +4556,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.908367888745158</v>
+        <v>13.05070802079847</v>
       </c>
       <c r="C12">
-        <v>7.504050667408229</v>
+        <v>7.356388384315911</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4603,10 +4570,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.00951049662451</v>
+        <v>14.06432759603111</v>
       </c>
       <c r="C13">
-        <v>7.808746071825837</v>
+        <v>7.623254285317023</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4617,10 +4584,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.01766410592228</v>
+        <v>15.01891950258138</v>
       </c>
       <c r="C14">
-        <v>8.082752738315939</v>
+        <v>7.872604856785321</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -4631,10 +4598,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.9479799521536</v>
+        <v>15.92098715025286</v>
       </c>
       <c r="C15">
-        <v>8.326070666878538</v>
+        <v>8.104440098720804</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -4645,10 +4612,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.81333502572447</v>
+        <v>16.77973409330655</v>
       </c>
       <c r="C16">
-        <v>8.538699857513635</v>
+        <v>8.318760011123475</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -4659,10 +4626,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.62851079917653</v>
+        <v>17.60312846760535</v>
       </c>
       <c r="C17">
-        <v>8.720640310221228</v>
+        <v>8.515564593993329</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -4673,10 +4640,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.39243503231825</v>
+        <v>18.393084554374</v>
       </c>
       <c r="C18">
-        <v>8.871892025001319</v>
+        <v>8.69485384733037</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -4687,10 +4654,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11940212282004</v>
+        <v>19.15249088744514</v>
       </c>
       <c r="C19">
-        <v>8.992455001853909</v>
+        <v>8.856627771134596</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4701,10 +4668,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.81008941083322</v>
+        <v>19.88684458896002</v>
       </c>
       <c r="C20">
-        <v>9.082329240778989</v>
+        <v>9.000886365406009</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -4715,10 +4682,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.46775427312497</v>
+        <v>20.59835142742092</v>
       </c>
       <c r="C21">
-        <v>9.141514741776572</v>
+        <v>9.127629630144606</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -4729,10 +4696,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09826129158296</v>
+        <v>21.28896193113903</v>
       </c>
       <c r="C22">
-        <v>9.170011504846645</v>
+        <v>9.236857565350391</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -4743,10 +4710,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.70383634800087</v>
+        <v>21.96040722995778</v>
       </c>
       <c r="C23">
-        <v>9.16781952998922</v>
+        <v>9.328570171023362</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -4757,10 +4724,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.28650412980293</v>
+        <v>22.61422902184458</v>
       </c>
       <c r="C24">
-        <v>9.134938817204294</v>
+        <v>9.402767447163516</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -4771,10 +4738,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84810840263747</v>
+        <v>23.25180475801648</v>
       </c>
       <c r="C25">
-        <v>9.07136936649186</v>
+        <v>9.459449393770857</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -4785,10 +4752,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.39033003087276</v>
+        <v>23.87436891362077</v>
       </c>
       <c r="C26">
-        <v>8.977111177851926</v>
+        <v>9.498616010845382</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -4799,10 +4766,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20.91470301789499</v>
+        <v>24.48303103585227</v>
       </c>
       <c r="C27">
-        <v>8.852164251284483</v>
+        <v>9.520267298387097</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -4813,10 +4780,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.42262880294905</v>
+        <v>25.07879112507008</v>
       </c>
       <c r="C28">
-        <v>8.69652858678954</v>
+        <v>9.524403256395995</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -4827,10 +4794,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.91538902090081</v>
+        <v>25.66255279764728</v>
       </c>
       <c r="C29">
-        <v>8.510204184367096</v>
+        <v>9.511023884872076</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -4841,10 +4808,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22.39415690505575</v>
+        <v>26.235134595025</v>
       </c>
       <c r="C30">
-        <v>8.293191044017147</v>
+        <v>9.480129183815347</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -4855,10 +4822,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22.86000749046136</v>
+        <v>26.7972797365728</v>
       </c>
       <c r="C31">
-        <v>8.045489165739696</v>
+        <v>9.431719153225799</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -4869,7 +4836,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.31392675545226</v>
+        <v>27.34963840121153</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -4879,8 +4846,11 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>27.89086400149509</v>
+      </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5087,16 +5057,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3.93167036118019</v>
+      </c>
+      <c r="C6">
+        <v>5.02485124563006</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>7.628142901835199</v>
+      </c>
+      <c r="C7">
+        <v>5.290776403245665</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5104,10 +5086,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.207731108110775</v>
+        <v>9.27679287612062</v>
       </c>
       <c r="C8">
-        <v>5.240910459216409</v>
+        <v>5.548840669295244</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -5118,10 +5100,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.491871672685672</v>
+        <v>10.6887122459887</v>
       </c>
       <c r="C9">
-        <v>5.467537541986928</v>
+        <v>5.799044043778798</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -5132,10 +5114,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.350360797769488</v>
+        <v>12.00186990458375</v>
       </c>
       <c r="C10">
-        <v>5.687684938259805</v>
+        <v>6.041386526696326</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -5146,10 +5128,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.15370920014228</v>
+        <v>13.17870558524333</v>
       </c>
       <c r="C11">
-        <v>5.901352648035037</v>
+        <v>6.275868118047828</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -5160,10 +5142,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.48034563874071</v>
+        <v>14.24865151280861</v>
       </c>
       <c r="C12">
-        <v>6.108540671312629</v>
+        <v>6.502488817833304</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -5174,10 +5156,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.59343124349892</v>
+        <v>15.24431368828901</v>
       </c>
       <c r="C13">
-        <v>6.309249008092575</v>
+        <v>6.721248626052755</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -5188,10 +5170,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58166649544027</v>
+        <v>16.17434266311774</v>
       </c>
       <c r="C14">
-        <v>6.503477658374879</v>
+        <v>6.932147542706178</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -5202,10 +5184,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.49058474770554</v>
+        <v>17.05595037963743</v>
       </c>
       <c r="C15">
-        <v>6.691226622159539</v>
+        <v>7.135185567793578</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -5216,10 +5198,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.33869619627651</v>
+        <v>17.8878351914217</v>
       </c>
       <c r="C16">
-        <v>6.872495899446556</v>
+        <v>7.330362701314952</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -5230,10 +5212,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13706834958772</v>
+        <v>18.68377376191156</v>
       </c>
       <c r="C17">
-        <v>7.047285490235931</v>
+        <v>7.517678943270298</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -5244,10 +5226,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.88994495295971</v>
+        <v>19.44754531549308</v>
       </c>
       <c r="C18">
-        <v>7.215595394527663</v>
+        <v>7.69713429365962</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -5258,10 +5240,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.60576712392472</v>
+        <v>20.18241344594433</v>
       </c>
       <c r="C19">
-        <v>7.37742561232175</v>
+        <v>7.868728752482916</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -5272,10 +5254,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.29057025111023</v>
+        <v>20.89121112881947</v>
       </c>
       <c r="C20">
-        <v>7.532776143618195</v>
+        <v>8.032462319740189</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -5286,10 +5268,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.94464956671311</v>
+        <v>21.57589525354807</v>
       </c>
       <c r="C21">
-        <v>7.681646988416996</v>
+        <v>8.188334995431433</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -5300,10 +5282,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.57248152027092</v>
+        <v>22.23909847135807</v>
       </c>
       <c r="C22">
-        <v>7.824038146718155</v>
+        <v>8.336346779556649</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -5314,10 +5296,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.17776352220292</v>
+        <v>22.88334768917652</v>
       </c>
       <c r="C23">
-        <v>7.959949618521669</v>
+        <v>8.476497672115844</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -5328,10 +5310,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.76236700362111</v>
+        <v>23.51022928716765</v>
       </c>
       <c r="C24">
-        <v>8.089381403827542</v>
+        <v>8.608787673109012</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -5342,10 +5324,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.32797114908304</v>
+        <v>24.12083308668489</v>
       </c>
       <c r="C25">
-        <v>8.21233350263577</v>
+        <v>8.733216782536154</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -5356,10 +5338,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>21.87608677465855</v>
+        <v>24.71584253873926</v>
       </c>
       <c r="C26">
-        <v>8.328805914946356</v>
+        <v>8.849785000397269</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -5370,10 +5352,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22.40807673820647</v>
+        <v>25.29701152036391</v>
       </c>
       <c r="C27">
-        <v>8.438798640759298</v>
+        <v>8.958492326692358</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -5384,10 +5366,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22.92517345538965</v>
+        <v>25.86540159805658</v>
       </c>
       <c r="C28">
-        <v>8.542311680074601</v>
+        <v>9.059338761421422</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -5398,10 +5380,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.4284939890587</v>
+        <v>26.42196623499287</v>
       </c>
       <c r="C29">
-        <v>8.639345032892255</v>
+        <v>9.152324304584463</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -5412,10 +5394,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>23.9190530952385</v>
+        <v>26.96756419362768</v>
       </c>
       <c r="C30">
-        <v>8.729898699212267</v>
+        <v>9.237448956181474</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -5426,10 +5408,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>24.3977745413116</v>
+        <v>27.5029709924222</v>
       </c>
       <c r="C31">
-        <v>8.813972679034638</v>
+        <v>9.314712716212465</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -5439,112 +5421,64 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>24.8655009574944</v>
-      </c>
-      <c r="C32">
-        <v>8.891566972359366</v>
-      </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>25.32300243856609</v>
-      </c>
-      <c r="C33">
-        <v>8.962681579186448</v>
-      </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>25.77075721552042</v>
-      </c>
-      <c r="C34">
-        <v>9.027316499515889</v>
-      </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>26.207541298042</v>
-      </c>
-      <c r="C35">
-        <v>9.085471733347688</v>
-      </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>26.63592286845653</v>
-      </c>
-      <c r="C36">
-        <v>9.137147280681841</v>
-      </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>27.0564678056921</v>
-      </c>
-      <c r="C37">
-        <v>9.182343141518352</v>
-      </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>27.46969678014022</v>
-      </c>
-      <c r="C38">
-        <v>9.221059315857222</v>
-      </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>27.87537421971795</v>
-      </c>
-      <c r="C39">
-        <v>9.253295803698446</v>
-      </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5703,8 +5637,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>4.896030142235507</v>
+      </c>
+      <c r="C6">
+        <v>4.579964741147747</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5712,10 +5652,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.540151531023771</v>
+        <v>8.803283804487787</v>
       </c>
       <c r="C7">
-        <v>4.533622557876912</v>
+        <v>4.887950090354097</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -5726,10 +5666,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.675873818161979</v>
+        <v>10.47561433898492</v>
       </c>
       <c r="C8">
-        <v>4.813235073404861</v>
+        <v>5.185125128205134</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -5740,10 +5680,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.178030869499274</v>
+        <v>11.72931409879785</v>
       </c>
       <c r="C9">
-        <v>5.081659991530215</v>
+        <v>5.47148985470086</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -5754,10 +5694,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.6612171731027</v>
+        <v>12.93216340132553</v>
       </c>
       <c r="C10">
-        <v>5.338897312252969</v>
+        <v>5.747044269841275</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -5768,10 +5708,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.05887205391873</v>
+        <v>14.02388174178549</v>
       </c>
       <c r="C11">
-        <v>5.584947035573127</v>
+        <v>6.011788373626379</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -5782,10 +5722,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.60885606457501</v>
+        <v>15.03177346102025</v>
       </c>
       <c r="C12">
-        <v>5.819809161490687</v>
+        <v>6.265722166056171</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -5796,10 +5736,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.52621959447209</v>
+        <v>15.97233989683487</v>
       </c>
       <c r="C13">
-        <v>6.043483690005648</v>
+        <v>6.508845647130652</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -5810,10 +5750,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.38467905204841</v>
+        <v>16.86255338744191</v>
       </c>
       <c r="C14">
-        <v>6.255970621118015</v>
+        <v>6.741158816849822</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -5824,10 +5764,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.20233895709599</v>
+        <v>17.71225088656963</v>
       </c>
       <c r="C15">
-        <v>6.457269954827782</v>
+        <v>6.96266167521368</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -5838,10 +5778,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98194856708002</v>
+        <v>18.52248463313948</v>
       </c>
       <c r="C16">
-        <v>6.647381691134953</v>
+        <v>7.173354222222226</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -5852,10 +5792,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.73489437096044</v>
+        <v>19.30393608113124</v>
       </c>
       <c r="C17">
-        <v>6.826305830039526</v>
+        <v>7.373236457875461</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -5866,10 +5806,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.46046121922987</v>
+        <v>20.06000253107209</v>
       </c>
       <c r="C18">
-        <v>6.994042371541502</v>
+        <v>7.562308382173385</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -5880,10 +5820,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.16657186040445</v>
+        <v>20.79357901451313</v>
       </c>
       <c r="C19">
-        <v>7.150591315640881</v>
+        <v>7.740569995115997</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -5894,10 +5834,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.85577956837722</v>
+        <v>21.5071484850154</v>
       </c>
       <c r="C20">
-        <v>7.295952662337661</v>
+        <v>7.908021296703299</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -5908,10 +5848,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.52808879604582</v>
+        <v>22.20284623019737</v>
       </c>
       <c r="C21">
-        <v>7.430126411631844</v>
+        <v>8.064662286935288</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -5922,10 +5862,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.1876907581301</v>
+        <v>22.88181932688983</v>
       </c>
       <c r="C22">
-        <v>7.553112563523431</v>
+        <v>8.210492965811968</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -5936,10 +5876,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.83634565339414</v>
+        <v>23.54676582998136</v>
       </c>
       <c r="C23">
-        <v>7.664911118012418</v>
+        <v>8.345513333333335</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -5950,10 +5890,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47541891432039</v>
+        <v>24.19902705862243</v>
       </c>
       <c r="C24">
-        <v>7.76552207509881</v>
+        <v>8.469723389499391</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -5963,32 +5903,56 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>24.83978924057487</v>
+      </c>
+      <c r="C25">
+        <v>8.583123134310132</v>
+      </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>25.47010593930235</v>
+      </c>
+      <c r="C26">
+        <v>8.685712567765567</v>
+      </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>26.09091674893396</v>
+      </c>
+      <c r="C27">
+        <v>8.777491689865686</v>
+      </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>26.70300275800228</v>
+      </c>
+      <c r="C28">
+        <v>8.858460500610498</v>
+      </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6235,16 +6199,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>6.843494496520174</v>
+      </c>
+      <c r="C6">
+        <v>4.512814181590146</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>9.092307291777475</v>
+      </c>
+      <c r="C7">
+        <v>4.826143914183639</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6252,10 +6228,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.988715154456148</v>
+        <v>10.86682649956032</v>
       </c>
       <c r="C8">
-        <v>4.800796964991528</v>
+        <v>5.127964351398598</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -6266,10 +6242,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.922504379814736</v>
+        <v>12.28113099209529</v>
       </c>
       <c r="C9">
-        <v>5.07404999435347</v>
+        <v>5.418275493235023</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -6280,10 +6256,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37682621178802</v>
+        <v>13.49822474649069</v>
       </c>
       <c r="C10">
-        <v>5.334938647656688</v>
+        <v>5.697077339692912</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6294,10 +6270,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.19617671738724</v>
+        <v>14.60362466799302</v>
       </c>
       <c r="C11">
-        <v>5.583462924901184</v>
+        <v>5.964369890772268</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -6308,10 +6284,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.28074485126267</v>
+        <v>15.62576348412825</v>
       </c>
       <c r="C12">
-        <v>5.819622826086955</v>
+        <v>6.220153146473089</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -6322,10 +6298,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.1726287137467</v>
+        <v>16.58612532915261</v>
       </c>
       <c r="C13">
-        <v>6.043418351214003</v>
+        <v>6.464427106795376</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -6336,10 +6312,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.00539492650964</v>
+        <v>17.49795554807566</v>
       </c>
       <c r="C14">
-        <v>6.254849500282326</v>
+        <v>6.697191771739127</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -6350,10 +6326,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79528317554967</v>
+        <v>18.37220268880705</v>
       </c>
       <c r="C15">
-        <v>6.453916273291924</v>
+        <v>6.918447141304345</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -6364,10 +6340,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54975796514397</v>
+        <v>19.21079812637509</v>
       </c>
       <c r="C16">
-        <v>6.6406186702428</v>
+        <v>7.128193215491028</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -6378,10 +6354,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.27822940709903</v>
+        <v>20.02382031903889</v>
       </c>
       <c r="C17">
-        <v>6.814956691134953</v>
+        <v>7.326429994299176</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -6392,10 +6368,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.9810065547715</v>
+        <v>20.8146636071317</v>
       </c>
       <c r="C18">
-        <v>6.976930335968381</v>
+        <v>7.51315747772879</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -6406,10 +6382,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.66609999078795</v>
+        <v>21.58573579017546</v>
       </c>
       <c r="C19">
-        <v>7.126539604743084</v>
+        <v>7.688375665779868</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -6420,10 +6396,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.33611393293169</v>
+        <v>22.3387326118149</v>
       </c>
       <c r="C20">
-        <v>7.263784497459064</v>
+        <v>7.852084558452413</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -6434,10 +6410,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.99249726711855</v>
+        <v>23.0777430793907</v>
       </c>
       <c r="C21">
-        <v>7.388665014116322</v>
+        <v>8.004284155746422</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -6448,10 +6424,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.63764164335467</v>
+        <v>23.80458678010762</v>
       </c>
       <c r="C22">
-        <v>7.501181154714855</v>
+        <v>8.144974457661899</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -6462,10 +6438,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.27425345673465</v>
+        <v>24.52088747050005</v>
       </c>
       <c r="C23">
-        <v>7.601332919254663</v>
+        <v>8.27415546419884</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -6476,10 +6452,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.90388024933095</v>
+        <v>25.22810652084956</v>
       </c>
       <c r="C24">
-        <v>7.689120307735749</v>
+        <v>8.391827175357244</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -6490,10 +6466,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.52794830600028</v>
+        <v>25.92757079668824</v>
       </c>
       <c r="C25">
-        <v>7.76454332015811</v>
+        <v>8.497989591137117</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -6504,10 +6480,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>23.14768506685061</v>
+        <v>26.62049616219361</v>
       </c>
       <c r="C26">
-        <v>7.827601956521747</v>
+        <v>8.592642711538456</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -6517,22 +6493,16 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>23.76437938673648</v>
-      </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>24.37957240026247</v>
-      </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6779,8 +6749,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5.783533019107754</v>
+      </c>
+      <c r="C6">
+        <v>4.664940262085738</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6788,10 +6764,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.524500727971534</v>
+        <v>8.492813360967805</v>
       </c>
       <c r="C7">
-        <v>4.781037130672529</v>
+        <v>4.912975962298568</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -6802,10 +6778,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.694650418442632</v>
+        <v>10.2543657791988</v>
       </c>
       <c r="C8">
-        <v>5.017664995393622</v>
+        <v>5.152900058680448</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -6816,10 +6792,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.027407106908687</v>
+        <v>11.79516919449714</v>
       </c>
       <c r="C9">
-        <v>5.24232345834943</v>
+        <v>5.384712551231376</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -6830,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.56280655442614</v>
+        <v>13.20167034988604</v>
       </c>
       <c r="C10">
-        <v>5.455012519539956</v>
+        <v>5.608413439951351</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6844,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.54844711635401</v>
+        <v>14.48594405195969</v>
       </c>
       <c r="C11">
-        <v>5.6557321789652</v>
+        <v>5.824002724840375</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -6858,10 +6834,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.45881194096396</v>
+        <v>15.68166810367827</v>
       </c>
       <c r="C12">
-        <v>5.844482436625159</v>
+        <v>6.031480405898447</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -6872,10 +6848,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.31900413184342</v>
+        <v>16.81084420134475</v>
       </c>
       <c r="C13">
-        <v>6.021263292519838</v>
+        <v>6.230846483125569</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -6886,10 +6862,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.15091792123087</v>
+        <v>17.88881902863059</v>
       </c>
       <c r="C14">
-        <v>6.186074746649233</v>
+        <v>6.422100956521739</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -6900,10 +6876,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.96381893088618</v>
+        <v>18.92490602670476</v>
       </c>
       <c r="C15">
-        <v>6.338916799013345</v>
+        <v>6.605243826086956</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -6914,10 +6890,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76955181774816</v>
+        <v>19.92420073500603</v>
       </c>
       <c r="C16">
-        <v>6.479789449612175</v>
+        <v>6.780275091821222</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -6928,10 +6904,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.57669089237896</v>
+        <v>20.89688926996125</v>
       </c>
       <c r="C17">
-        <v>6.608692698445721</v>
+        <v>6.947194753724537</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -6942,10 +6918,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.3947167183984</v>
+        <v>21.84301449023865</v>
       </c>
       <c r="C18">
-        <v>6.725626545513986</v>
+        <v>7.106002811796899</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -6956,10 +6932,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23425957523192</v>
+        <v>22.7705993313763</v>
       </c>
       <c r="C19">
-        <v>6.830590990816968</v>
+        <v>7.25669926603831</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -6970,10 +6946,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.1103775051408</v>
+        <v>23.68010341306077</v>
       </c>
       <c r="C20">
-        <v>6.923586034354666</v>
+        <v>7.39928411644877</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -6984,10 +6960,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.04022521208305</v>
+        <v>24.57571439005982</v>
       </c>
       <c r="C21">
-        <v>7.00461167612708</v>
+        <v>7.533757363028277</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -6998,10 +6974,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.05828380049638</v>
+        <v>25.45993762242544</v>
       </c>
       <c r="C22">
-        <v>7.073667916134214</v>
+        <v>7.660119005776833</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -7012,10 +6988,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.23500236949556</v>
+        <v>26.33356372235179</v>
       </c>
       <c r="C23">
-        <v>7.130754754376065</v>
+        <v>7.778369044694438</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -7025,16 +7001,28 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>27.19999954067518</v>
+      </c>
+      <c r="C24">
+        <v>7.88850747978109</v>
+      </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>28.06045734035592</v>
+      </c>
+      <c r="C25">
+        <v>7.990534311036792</v>
+      </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7305,8 +7293,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>4.147939645678994</v>
+      </c>
+      <c r="C6">
+        <v>4.881965128514743</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7314,10 +7308,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.984270523158157</v>
+        <v>7.92603812095332</v>
       </c>
       <c r="C7">
-        <v>4.981588248764631</v>
+        <v>5.128852789158179</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -7328,10 +7322,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.51564521808112</v>
+        <v>9.72891730899631</v>
       </c>
       <c r="C8">
-        <v>5.196008976045232</v>
+        <v>5.368917196394681</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -7342,10 +7336,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.319459484480083</v>
+        <v>11.31764481606938</v>
       </c>
       <c r="C9">
-        <v>5.404478996737713</v>
+        <v>5.602158350224248</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -7356,10 +7350,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.2125184340419</v>
+        <v>12.63709044011252</v>
       </c>
       <c r="C10">
-        <v>5.606998310842074</v>
+        <v>5.82857625064688</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -7370,10 +7364,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.28937037898917</v>
+        <v>13.83830160688712</v>
       </c>
       <c r="C11">
-        <v>5.803566918358313</v>
+        <v>6.048170897662578</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -7384,10 +7378,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.36168076990196</v>
+        <v>14.94937826357465</v>
       </c>
       <c r="C12">
-        <v>5.994184819286432</v>
+        <v>6.26094229127134</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -7398,10 +7392,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.33314962674084</v>
+        <v>15.997710243489</v>
       </c>
       <c r="C13">
-        <v>6.17885201362643</v>
+        <v>6.466890431473169</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -7412,10 +7406,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.23164068479619</v>
+        <v>16.99680914318762</v>
       </c>
       <c r="C14">
-        <v>6.357568501378308</v>
+        <v>6.666015318268063</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -7426,10 +7420,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.07248917580491</v>
+        <v>17.95245754982551</v>
       </c>
       <c r="C15">
-        <v>6.530334282542065</v>
+        <v>6.858316951656022</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -7440,10 +7434,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.86494562075962</v>
+        <v>18.87684117322559</v>
       </c>
       <c r="C16">
-        <v>6.697149357117701</v>
+        <v>7.043795331637047</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -7454,10 +7448,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.62017355091468</v>
+        <v>19.77277418960555</v>
       </c>
       <c r="C17">
-        <v>6.858013725105216</v>
+        <v>7.222450458211137</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -7468,10 +7462,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.34287727620797</v>
+        <v>20.6455924011223</v>
       </c>
       <c r="C18">
-        <v>7.012927386504613</v>
+        <v>7.394282331378292</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -7482,10 +7476,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.03600491511048</v>
+        <v>21.50039498438757</v>
       </c>
       <c r="C19">
-        <v>7.161890341315887</v>
+        <v>7.559290951138512</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -7496,10 +7490,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.70604729253345</v>
+        <v>22.33796237813521</v>
       </c>
       <c r="C20">
-        <v>7.304902589539039</v>
+        <v>7.717476317491799</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -7510,10 +7504,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.35532294055368</v>
+        <v>23.16217531687525</v>
       </c>
       <c r="C21">
-        <v>7.441964131174072</v>
+        <v>7.868838430438149</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -7524,10 +7518,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.98461932456236</v>
+        <v>23.9757973894007</v>
       </c>
       <c r="C22">
-        <v>7.573074966220985</v>
+        <v>8.013377289977566</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -7538,10 +7532,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.59639898524375</v>
+        <v>24.78057152206962</v>
       </c>
       <c r="C23">
-        <v>7.698235094679777</v>
+        <v>8.151092896110047</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -7552,10 +7546,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.19323450802758</v>
+        <v>25.577283930433</v>
       </c>
       <c r="C24">
-        <v>7.817444516550448</v>
+        <v>8.281985248835595</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -7566,10 +7560,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.77641343257358</v>
+        <v>26.36876884828717</v>
       </c>
       <c r="C25">
-        <v>7.930703231832998</v>
+        <v>8.406054348154207</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -7580,10 +7574,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22.34708027404541</v>
+        <v>27.15644545243763</v>
       </c>
       <c r="C26">
-        <v>8.038011240527428</v>
+        <v>8.523300194065886</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -7594,10 +7588,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22.90625587684459</v>
+        <v>27.94168185362415</v>
       </c>
       <c r="C27">
-        <v>8.139368542633738</v>
+        <v>8.63372278657063</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -7608,10 +7602,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.45485371000422</v>
+        <v>28.7258392509299</v>
       </c>
       <c r="C28">
-        <v>8.234775138151928</v>
+        <v>8.737322125668438</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -7622,10 +7616,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.99369365370041</v>
+        <v>29.51050825498048</v>
       </c>
       <c r="C29">
-        <v>8.324231027081995</v>
+        <v>8.834098211359311</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -7636,10 +7630,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24.52351371635105</v>
+        <v>30.2970636764286</v>
       </c>
       <c r="C30">
-        <v>8.407736209423941</v>
+        <v>8.924051043643251</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -7650,10 +7644,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>25.04498003594888</v>
+        <v>31.08685663079595</v>
       </c>
       <c r="C31">
-        <v>8.485290685177768</v>
+        <v>9.007180622520258</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -7663,53 +7657,32 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>25.55869545185859</v>
-      </c>
-      <c r="C32">
-        <v>8.556894454343475</v>
-      </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>26.06520688001378</v>
-      </c>
-      <c r="C33">
-        <v>8.62254751692106</v>
-      </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>26.56501168206493</v>
-      </c>
-      <c r="C34">
-        <v>8.682249872910525</v>
-      </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>27.05856318512927</v>
-      </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7900,16 +7873,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3.424318571706298</v>
+      </c>
+      <c r="C6">
+        <v>4.951273782145238</v>
+      </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>7.585936889407992</v>
+      </c>
+      <c r="C7">
+        <v>5.232841833209319</v>
+      </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7917,10 +7902,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.260734679810948</v>
+        <v>9.230961740588848</v>
       </c>
       <c r="C8">
-        <v>5.249512632072619</v>
+        <v>5.507463058559408</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -7931,10 +7916,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.521912834030754</v>
+        <v>10.81838984730873</v>
       </c>
       <c r="C9">
-        <v>5.489680151910467</v>
+        <v>5.775137458195508</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -7945,10 +7930,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.75113311024127</v>
+        <v>11.93175607079889</v>
       </c>
       <c r="C10">
-        <v>5.722682031115227</v>
+        <v>6.035865032117615</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -7959,10 +7944,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.0654083882807</v>
+        <v>12.94749388438505</v>
       </c>
       <c r="C11">
-        <v>5.948518269686902</v>
+        <v>6.289645780325731</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -7973,10 +7958,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.8502518092744</v>
+        <v>14.04868339912615</v>
       </c>
       <c r="C12">
-        <v>6.167188867625492</v>
+        <v>6.536479702819856</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -7987,10 +7972,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.77592385550666</v>
+        <v>15.07776240139664</v>
       </c>
       <c r="C13">
-        <v>6.378693824930993</v>
+        <v>6.776366799599991</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -8001,10 +7986,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.6425009917104</v>
+        <v>16.04336075256377</v>
       </c>
       <c r="C14">
-        <v>6.58303314160341</v>
+        <v>7.009307070666134</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -8015,10 +8000,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.46038752364825</v>
+        <v>16.96336281480317</v>
       </c>
       <c r="C15">
-        <v>6.780206817642742</v>
+        <v>7.235300516018285</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -8029,10 +8014,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.24232823129774</v>
+        <v>17.84001150340671</v>
       </c>
       <c r="C16">
-        <v>6.970214853048985</v>
+        <v>7.454347135656448</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -8043,10 +8028,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.99309055466857</v>
+        <v>18.68088775349356</v>
       </c>
       <c r="C17">
-        <v>7.153057247822144</v>
+        <v>7.666446929580617</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -8057,10 +8042,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.72106188950573</v>
+        <v>19.49230730486131</v>
       </c>
       <c r="C18">
-        <v>7.328734001962216</v>
+        <v>7.871599897790797</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -8071,10 +8056,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42651250054758</v>
+        <v>20.27706451289253</v>
       </c>
       <c r="C19">
-        <v>7.497245115469203</v>
+        <v>8.069806040286982</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -8085,10 +8070,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.1155738380502</v>
+        <v>21.03508749072</v>
       </c>
       <c r="C20">
-        <v>7.658590588343102</v>
+        <v>8.261065357069182</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -8099,10 +8084,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.7909469102109</v>
+        <v>21.77212188932645</v>
       </c>
       <c r="C21">
-        <v>7.812770420583917</v>
+        <v>8.445377848137387</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -8113,10 +8098,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.4539462276496</v>
+        <v>22.49000253890337</v>
       </c>
       <c r="C22">
-        <v>7.959784612191644</v>
+        <v>8.622743513491601</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -8127,10 +8112,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.10640474563411</v>
+        <v>23.1903536841691</v>
       </c>
       <c r="C23">
-        <v>8.099633163166287</v>
+        <v>8.793162353131825</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -8141,10 +8126,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.75093318426235</v>
+        <v>23.87461826106046</v>
       </c>
       <c r="C24">
-        <v>8.232316073507842</v>
+        <v>8.956634367058058</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -8155,10 +8140,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.38892060162265</v>
+        <v>24.5440824176682</v>
       </c>
       <c r="C25">
-        <v>8.357833343216313</v>
+        <v>9.113159555270299</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -8169,10 +8154,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22.02165593596018</v>
+        <v>25.19989615677628</v>
       </c>
       <c r="C26">
-        <v>8.476184972291694</v>
+        <v>9.26273791776855</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -8183,10 +8168,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22.65011484766132</v>
+        <v>25.84309079712428</v>
       </c>
       <c r="C27">
-        <v>8.587370960733994</v>
+        <v>9.405369454552808</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -8197,10 +8182,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.27575001992891</v>
+        <v>26.47459381088441</v>
       </c>
       <c r="C28">
-        <v>8.691391308543205</v>
+        <v>9.541054165623077</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -8211,10 +8196,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.89984790010925</v>
+        <v>27.09524148590992</v>
       </c>
       <c r="C29">
-        <v>8.788246015719331</v>
+        <v>9.669792050979353</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -8225,10 +8210,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24.52347790192697</v>
+        <v>27.70578977575224</v>
       </c>
       <c r="C30">
-        <v>8.877935082262368</v>
+        <v>9.791583110621641</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -8239,10 +8224,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>25.14770310181673</v>
+        <v>28.30692363281651</v>
       </c>
       <c r="C31">
-        <v>8.960458508172323</v>
+        <v>9.906427344549934</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -8253,10 +8238,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>25.77359426604228</v>
+        <v>28.89926506624843</v>
       </c>
       <c r="C32">
-        <v>9.035816293449191</v>
+        <v>10.01432475276424</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -8267,10 +8252,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>26.4027319658842</v>
+        <v>29.48338012313769</v>
       </c>
       <c r="C33">
-        <v>9.104008438092972</v>
+        <v>10.11527533526455</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -8281,10 +8266,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27.03607639055436</v>
+        <v>30.05978495704067</v>
       </c>
       <c r="C34">
-        <v>9.165034942103667</v>
+        <v>10.20927909205087</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -8295,10 +8280,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>27.6748193249187</v>
+        <v>30.62895111987235</v>
       </c>
       <c r="C35">
-        <v>9.218895805481276</v>
+        <v>10.2963360231232</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -8308,72 +8293,126 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>31.19102520618243</v>
+      </c>
+      <c r="C36">
+        <v>10.37644612848154</v>
+      </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37">
+        <v>31.74583429334485</v>
+      </c>
+      <c r="C37">
+        <v>10.44960940812589</v>
+      </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>32.29460297554967</v>
+      </c>
+      <c r="C38">
+        <v>10.51582586205625</v>
+      </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>32.83767370502378</v>
+      </c>
+      <c r="C39">
+        <v>10.57509549027262</v>
+      </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>33.37536142388755</v>
+      </c>
+      <c r="C40">
+        <v>10.62741829277499</v>
+      </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>33.90795618849973</v>
+      </c>
+      <c r="C41">
+        <v>10.67279426956338</v>
+      </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>34.43572549527758</v>
+      </c>
+      <c r="C42">
+        <v>10.71122342063777</v>
+      </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>34.95767184275489</v>
+      </c>
+      <c r="C43">
+        <v>10.74270574599817</v>
+      </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>35.47525709839692</v>
+      </c>
+      <c r="C44">
+        <v>10.76724124564458</v>
+      </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
